--- a/medicine/Psychotrope/Dortmunder_Actien-Brauerei/Dortmunder_Actien-Brauerei.xlsx
+++ b/medicine/Psychotrope/Dortmunder_Actien-Brauerei/Dortmunder_Actien-Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dortmunder Actien-Brauerei (DAB) est une brasserie à Dortmund.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société est fondée en 1868 par les commerçants de Dortmund Laurenz Fischer, Heinrich et Friedrich Mauritz avec le maître brasseur Heinrich Herberz sous le nom de Bierbrauerei Herberz &amp; Co. En 1872, elle prend le nom de Dortmunder Actien-Brauerei.
 Elle suit une stratégie d'exportation à partir de 1879. La bière, produite à partir de 1881 principalement sous le nom de « Dortmunder Helles », dans un style brassicole à fermentation basse, est exportée vers tous les continents. La même année, sous la direction personnelle de Carl von Linde, une des premières machines de réfrigération inventées par lui est mise en place. En 1885, la production annuelle dépasse 100 000 hectolitres. La DAB établit un laboratoire de chimie bactériologique en 1893.
